--- a/stock_historical_data/1wk/ARE&M.NS.xlsx
+++ b/stock_historical_data/1wk/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1734,12 +1805,15 @@
         <v>12</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,63 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1225</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1268.900024414062</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1188.650024414062</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1221.550048828125</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1221.550048828125</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>27</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>22</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/ARE&M.NS.xlsx
+++ b/stock_historical_data/1wk/ARE&M.NS.xlsx
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -2373,7 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/ARE&M.NS.xlsx
+++ b/stock_historical_data/1wk/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,63 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1250</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1250</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1219.849975585938</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1219.849975585938</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1219.849975585938</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I35" t="n">
+        <v>6</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>23</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/ARE&M.NS.xlsx
+++ b/stock_historical_data/1wk/ARE&M.NS.xlsx
@@ -2429,7 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/ARE&M.NS.xlsx
+++ b/stock_historical_data/1wk/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,63 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1450</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1538.599975585938</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1380</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1393.349975585938</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1393.349975585938</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6</v>
+      </c>
+      <c r="J36" t="n">
+        <v>10</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>24</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/ARE&M.NS.xlsx
+++ b/stock_historical_data/1wk/ARE&M.NS.xlsx
@@ -2485,7 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/ARE&M.NS.xlsx
+++ b/stock_historical_data/1wk/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2489,6 +2489,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1341.099975585938</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1465.349975585938</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1339.050048828125</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1409.300048828125</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1409.300048828125</v>
+      </c>
+      <c r="G37" t="n">
+        <v>12022054</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I37" t="n">
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>17</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>25</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1409.050048828125</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1775.949951171875</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1372</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1663.150024414062</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1663.150024414062</v>
+      </c>
+      <c r="G38" t="n">
+        <v>46161204</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I38" t="n">
+        <v>6</v>
+      </c>
+      <c r="J38" t="n">
+        <v>24</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>26</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/ARE&M.NS.xlsx
+++ b/stock_historical_data/1wk/ARE&M.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:R73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2421,7 +2421,7 @@
         <v>23</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -2541,7 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2587,7 +2589,7 @@
         <v>26</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -2595,7 +2597,1829 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1647.570961089129</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1716.848390927576</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1609.607353100178</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1681.961547851562</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>7605845</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I39" t="n">
+        <v>7</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>27</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1691.24145798681</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1731.934474288135</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1573.182133545858</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1603.652221679688</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>4885742</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I40" t="n">
+        <v>7</v>
+      </c>
+      <c r="J40" t="n">
+        <v>8</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>28</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1623.750714331381</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1646.082249216745</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1508.619245589058</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1529.313110351562</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>3716475</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I41" t="n">
+        <v>7</v>
+      </c>
+      <c r="J41" t="n">
+        <v>15</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>29</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1543.408958404492</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1682.813638518446</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1398.02979199994</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1673.30419921875</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>5707874</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I42" t="n">
+        <v>7</v>
+      </c>
+      <c r="J42" t="n">
+        <v>22</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>30</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1689.485196774261</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1689.535032783377</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1568.750779373357</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1605.493896484375</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>3670113</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I43" t="n">
+        <v>7</v>
+      </c>
+      <c r="J43" t="n">
+        <v>29</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>31</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1573.281405217488</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1598.125262331283</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1452.347892658448</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1499.39697265625</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>5525885</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I44" t="n">
+        <v>8</v>
+      </c>
+      <c r="J44" t="n">
+        <v>5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>32</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1531.459985179522</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1631.980668356085</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1509.75263637898</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1554.362182617188</v>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>4103722</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I45" t="n">
+        <v>8</v>
+      </c>
+      <c r="J45" t="n">
+        <v>12</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>33</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1567.555941847584</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1577.065381762122</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1517.619166396375</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1520.855346679688</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>1862793</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I46" t="n">
+        <v>8</v>
+      </c>
+      <c r="J46" t="n">
+        <v>19</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>34</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1530.265175982862</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1570.095085596666</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1503.62892392863</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1514.78125</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>1616137</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I47" t="n">
+        <v>8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>26</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>35</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1521.751503329476</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1523.494061897005</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1406.593251399366</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1411.621826171875</v>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>3468215</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I48" t="n">
+        <v>9</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>36</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1411.621786489542</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1446.821444253881</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1377.368040443346</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1404.552001953125</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>2016997</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I49" t="n">
+        <v>9</v>
+      </c>
+      <c r="J49" t="n">
+        <v>9</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>37</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1424.018811879098</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1427.902252356843</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1334.301965242796</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1375.227172851562</v>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>1887798</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I50" t="n">
+        <v>9</v>
+      </c>
+      <c r="J50" t="n">
+        <v>16</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>38</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1395.042567696784</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1407.091090901976</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1311.598859423905</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1386.230224609375</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>3264508</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I51" t="n">
+        <v>9</v>
+      </c>
+      <c r="J51" t="n">
+        <v>23</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>39</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1392.055302736769</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1437.859697533544</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1329.323196819447</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1373.733520507812</v>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>3797000</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I52" t="n">
+        <v>9</v>
+      </c>
+      <c r="J52" t="n">
+        <v>30</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>40</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1376.123338127124</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1416.500956473418</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1291.484782598322</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1400.91748046875</v>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>3740994</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I53" t="n">
+        <v>10</v>
+      </c>
+      <c r="J53" t="n">
+        <v>7</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>41</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1401.017084114981</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1408.883515649471</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1333.00746417604</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1336.641967773438</v>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>1801399</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I54" t="n">
+        <v>10</v>
+      </c>
+      <c r="J54" t="n">
+        <v>14</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>42</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1350.234002233008</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1352.225497811522</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1213.667168626109</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1236.519653320312</v>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>2806184</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I55" t="n">
+        <v>10</v>
+      </c>
+      <c r="J55" t="n">
+        <v>21</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>43</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1261.263893032157</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1415.953279376746</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1254.642146283192</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1399.324340820312</v>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>4656008</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I56" t="n">
+        <v>10</v>
+      </c>
+      <c r="J56" t="n">
+        <v>28</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>44</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1403.008571659757</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1403.008571659757</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1288.497581070068</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1297.907348632812</v>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>2162530</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I57" t="n">
+        <v>11</v>
+      </c>
+      <c r="J57" t="n">
+        <v>4</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>45</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1294.472089151385</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1299.450827955813</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1232.735727976473</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1250.260864257812</v>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>1716228</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I58" t="n">
+        <v>11</v>
+      </c>
+      <c r="J58" t="n">
+        <v>11</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>46</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1259.25</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1278.349975585938</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1209.050048828125</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1228.25</v>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>1689190</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I59" t="n">
+        <v>11</v>
+      </c>
+      <c r="J59" t="n">
+        <v>18</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>47</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1260</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1285</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1224.050048828125</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1280.699951171875</v>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>2508789</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I60" t="n">
+        <v>11</v>
+      </c>
+      <c r="J60" t="n">
+        <v>25</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>48</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1290</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1344.949951171875</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1263</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1330.650024414062</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>2210989</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I61" t="n">
+        <v>12</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>49</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1333</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1360</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1272.550048828125</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1293.699951171875</v>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>1861750</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I62" t="n">
+        <v>12</v>
+      </c>
+      <c r="J62" t="n">
+        <v>9</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>50</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1293.5</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1310.5</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1185</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1197.349975585938</v>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>3180280</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I63" t="n">
+        <v>12</v>
+      </c>
+      <c r="J63" t="n">
+        <v>16</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>51</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1217.949951171875</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1242</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1157</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1219.349975585938</v>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>2606961</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I64" t="n">
+        <v>12</v>
+      </c>
+      <c r="J64" t="n">
+        <v>23</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>52</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1219</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1231.199951171875</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1177</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1189.900024414062</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>2112079</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I65" t="n">
+        <v>12</v>
+      </c>
+      <c r="J65" t="n">
+        <v>30</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1189.900024414062</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1196.949951171875</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1061.5</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1079.349975585938</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>2704829</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>6</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1075</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1097.849975585938</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1027.050048828125</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1077.699951171875</v>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>2807390</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>13</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>3</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1087.5</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1118.949951171875</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1053</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1058.25</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>2333524</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>20</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>4</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1045.099975585938</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1093.949951171875</v>
+      </c>
+      <c r="D69" t="n">
+        <v>990</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1077.400024414062</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>4406498</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>27</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>5</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1080</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1108</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1049.050048828125</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1069.150024414062</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>2519201</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>6</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1064.050048828125</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1064.449951171875</v>
+      </c>
+      <c r="D71" t="n">
+        <v>950</v>
+      </c>
+      <c r="E71" t="n">
+        <v>953.8499755859375</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>2957879</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2</v>
+      </c>
+      <c r="J71" t="n">
+        <v>10</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>7</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B72" t="n">
+        <v>952.9500122070312</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1069</v>
+      </c>
+      <c r="D72" t="n">
+        <v>931.0499877929688</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1015.200012207031</v>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>8763257</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2</v>
+      </c>
+      <c r="J72" t="n">
+        <v>17</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>8</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1016.400024414062</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1060</v>
+      </c>
+      <c r="D73" t="n">
+        <v>972.7999877929688</v>
+      </c>
+      <c r="E73" t="n">
+        <v>979.1500244140625</v>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>4662545</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>24</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>9</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/ARE&M.NS.xlsx
+++ b/stock_historical_data/1wk/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R73"/>
+  <dimension ref="A1:R77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -2651,7 +2651,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2703,7 +2705,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2755,7 +2759,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2807,7 +2813,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2859,7 +2867,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
-      <c r="R43" t="inlineStr"/>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2911,7 +2921,9 @@
       <c r="Q44" t="n">
         <v>2</v>
       </c>
-      <c r="R44" t="inlineStr"/>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2963,7 +2975,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -3015,7 +3029,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
-      <c r="R46" t="inlineStr"/>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -3067,7 +3083,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
-      <c r="R47" t="inlineStr"/>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3119,7 +3137,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3171,7 +3191,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
-      <c r="R49" t="inlineStr"/>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3223,7 +3245,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3275,7 +3299,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3327,7 +3353,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
-      <c r="R52" t="inlineStr"/>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3379,7 +3407,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
-      <c r="R53" t="inlineStr"/>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3431,7 +3461,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3483,7 +3515,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
-      <c r="R55" t="inlineStr"/>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3535,7 +3569,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3587,7 +3623,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3639,7 +3677,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
-      <c r="R58" t="inlineStr"/>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3691,7 +3731,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
-      <c r="R59" t="inlineStr"/>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3743,7 +3785,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
-      <c r="R60" t="inlineStr"/>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3795,7 +3839,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
-      <c r="R61" t="inlineStr"/>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3847,7 +3893,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
-      <c r="R62" t="inlineStr"/>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3899,7 +3947,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
-      <c r="R63" t="inlineStr"/>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3951,7 +4001,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
-      <c r="R64" t="inlineStr"/>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -4003,7 +4055,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
-      <c r="R65" t="inlineStr"/>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -4055,7 +4109,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
-      <c r="R66" t="inlineStr"/>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4107,7 +4163,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
-      <c r="R67" t="inlineStr"/>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4159,7 +4217,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
-      <c r="R68" t="inlineStr"/>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4211,7 +4271,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
-      <c r="R69" t="inlineStr"/>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4263,7 +4325,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
-      <c r="R70" t="inlineStr"/>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4315,7 +4379,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
-      <c r="R71" t="inlineStr"/>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4367,7 +4433,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
-      <c r="R72" t="inlineStr"/>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4419,7 +4487,217 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
-      <c r="R73" t="inlineStr"/>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B74" t="n">
+        <v>983.0999755859375</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1031.099975585938</v>
+      </c>
+      <c r="D74" t="n">
+        <v>927</v>
+      </c>
+      <c r="E74" t="n">
+        <v>998.6500244140625</v>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>3445829</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>3</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>10</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1000.150024414062</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1031</v>
+      </c>
+      <c r="D75" t="n">
+        <v>957.5999755859375</v>
+      </c>
+      <c r="E75" t="n">
+        <v>961.5999755859375</v>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>1792414</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3</v>
+      </c>
+      <c r="J75" t="n">
+        <v>10</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>11</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B76" t="n">
+        <v>969</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1076.099975585938</v>
+      </c>
+      <c r="D76" t="n">
+        <v>961.0999755859375</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1063.900024414062</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>3617959</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3</v>
+      </c>
+      <c r="J76" t="n">
+        <v>17</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>12</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1065</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1109</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1000.049987792969</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1003.299987792969</v>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>5842592</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I77" t="n">
+        <v>3</v>
+      </c>
+      <c r="J77" t="n">
+        <v>24</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>13</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
